--- a/Maven-21May-A-4/src/test/resources/Excel Sheet/Test.xlsx
+++ b/Maven-21May-A-4/src/test/resources/Excel Sheet/Test.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="12600" windowHeight="6495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sanjog Info" sheetId="1" r:id="rId1"/>
     <sheet name="details" sheetId="2" r:id="rId2"/>
     <sheet name="extra" sheetId="3" r:id="rId3"/>
+    <sheet name="Zeroda pin" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:L20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>pass 1</t>
   </si>
@@ -94,6 +96,9 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>001119</t>
   </si>
 </sst>
 </file>
@@ -202,7 +207,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -214,6 +219,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -511,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -594,8 +601,8 @@
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5">
-        <v>1119</v>
+      <c r="C7" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -623,6 +630,7 @@
     <hyperlink ref="B8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -631,7 +639,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -657,8 +665,8 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10">
-        <v>1119</v>
+      <c r="A3" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -690,4 +698,24 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>